--- a/IEData/Semitic.xlsx
+++ b/IEData/Semitic.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjbaker\Documents\github\InstEvo\IEData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\github\InstEvo\IEData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531CADBC-AC25-4574-81F4-8698070024EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25395" windowHeight="11505"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="44">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -131,9 +137,6 @@
     <t>LL</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -143,55 +146,28 @@
     <t>T</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes: it turns out that that is about all we can do in the first iteration. </t>
-  </si>
-  <si>
     <t>Live</t>
   </si>
   <si>
-    <t>Also, do steps within steps first. So, wherever something is "live" and part of the ongoing algorithm, first collect it into LL</t>
+    <t>LL_D</t>
   </si>
   <si>
-    <t>Combine Geez with Tigrinya</t>
+    <t>LL_DD</t>
   </si>
   <si>
-    <t>LL_F</t>
+    <t>Combining geez with Tigrinya-Tigre: Geez is closer to Tigrinya so we will do this (ML choice)</t>
   </si>
   <si>
-    <t>(Tigrinya)</t>
+    <t>Combining Harari with Zway/Walani as well. Zway is closer</t>
   </si>
   <si>
-    <t>(Tigre)</t>
-  </si>
-  <si>
-    <t>(Zway)</t>
-  </si>
-  <si>
-    <t>(Walani)</t>
-  </si>
-  <si>
-    <t>(Amharic)</t>
-  </si>
-  <si>
-    <t>(Argobba)</t>
-  </si>
-  <si>
-    <t>(Geto)</t>
-  </si>
-  <si>
-    <t>(Chaha)</t>
-  </si>
-  <si>
-    <t>(Innemor)</t>
-  </si>
-  <si>
-    <t>(Mesqan)</t>
+    <t>Combining Gafat with Amharic/Argobba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -505,36 +481,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="50.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -614,7 +590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.46</v>
       </c>
@@ -712,7 +688,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.46</v>
       </c>
@@ -813,7 +789,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.46</v>
       </c>
@@ -914,7 +890,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.46</v>
       </c>
@@ -1018,7 +994,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.46</v>
       </c>
@@ -1122,7 +1098,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.46</v>
       </c>
@@ -1226,7 +1202,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.46</v>
       </c>
@@ -1333,7 +1309,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.46</v>
       </c>
@@ -1440,7 +1416,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.46</v>
       </c>
@@ -1544,7 +1520,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.46</v>
       </c>
@@ -1657,7 +1633,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.46</v>
       </c>
@@ -1770,7 +1746,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.46</v>
       </c>
@@ -1883,7 +1859,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.46</v>
       </c>
@@ -1996,7 +1972,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.46</v>
       </c>
@@ -2103,7 +2079,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.46</v>
       </c>
@@ -2207,7 +2183,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.46</v>
       </c>
@@ -2305,7 +2281,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.46</v>
       </c>
@@ -2403,7 +2379,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.46</v>
       </c>
@@ -2501,7 +2477,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.46</v>
       </c>
@@ -2599,7 +2575,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.46</v>
       </c>
@@ -2694,7 +2670,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.46</v>
       </c>
@@ -2789,7 +2765,7 @@
         <v>4966</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.46</v>
       </c>
@@ -2884,7 +2860,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.46</v>
       </c>
@@ -2982,7 +2958,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.46</v>
       </c>
@@ -3080,7 +3056,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.46</v>
       </c>
@@ -3166,12 +3142,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3179,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3187,7 +3163,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3195,12 +3171,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="50.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="49.8" x14ac:dyDescent="0.3">
       <c r="M34" s="1" t="s">
         <v>1</v>
       </c>
@@ -3277,7 +3253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>A2*$C$30</f>
         <v>3680</v>
@@ -3409,7 +3385,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" ref="A36:A59" si="2">A3*$C$30</f>
         <v>3680</v>
@@ -3542,7 +3518,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -3675,7 +3651,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -3812,7 +3788,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -3949,7 +3925,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -4082,7 +4058,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -4223,7 +4199,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -4364,7 +4340,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -4501,7 +4477,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -4650,7 +4626,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -4799,7 +4775,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -4948,7 +4924,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -5097,7 +5073,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -5238,7 +5214,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -5375,7 +5351,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -5504,7 +5480,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -5633,7 +5609,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -5762,7 +5738,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -5891,7 +5867,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -6016,7 +5992,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -6141,7 +6117,7 @@
         <v>4966</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -6266,7 +6242,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -6395,7 +6371,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -6524,7 +6500,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>3680</v>
@@ -6637,20 +6613,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" t="s">
         <v>36</v>
       </c>
-      <c r="B63" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="66" spans="1:33" ht="50.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" ht="49.8" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>1</v>
       </c>
@@ -6727,7 +6703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -6786,574 +6762,741 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69">
+        <f>$F$37+$K$37</f>
+        <v>3008</v>
+      </c>
+      <c r="E69">
+        <f>$F$36+$K$36</f>
+        <v>3008</v>
+      </c>
+      <c r="F69">
+        <f>$G$39+$K$39</f>
+        <v>1536</v>
+      </c>
+      <c r="G69">
+        <f>$G$38+$K$38</f>
+        <v>1536</v>
+      </c>
+      <c r="I69">
+        <f>$H$42+$K$42</f>
+        <v>2128</v>
+      </c>
+      <c r="J69">
+        <f>$H$41+$K$41</f>
+        <v>2128</v>
+      </c>
+      <c r="L69">
+        <f>$J$45+$K$45</f>
+        <v>568</v>
+      </c>
+      <c r="M69">
+        <f>$J$44+$K$44</f>
+        <v>568</v>
+      </c>
+      <c r="N69">
+        <f>$J$47+$K$47</f>
+        <v>552</v>
+      </c>
+      <c r="O69">
+        <f>$J$46+$K$46</f>
+        <v>552</v>
+      </c>
+      <c r="R69">
+        <f>$E$51+$K$51</f>
+        <v>2704</v>
+      </c>
+      <c r="S69">
+        <f>$E$50+$K$50</f>
+        <v>2704</v>
+      </c>
+      <c r="T69">
+        <f>$E$53+$K$53</f>
+        <v>2704</v>
+      </c>
+      <c r="U69">
+        <f>$E$52+$K$52</f>
+        <v>2704</v>
+      </c>
+      <c r="V69">
+        <f>$E$55+$K$55</f>
+        <v>5768</v>
+      </c>
+      <c r="W69">
+        <f>$E$54+$K$54</f>
+        <v>5768</v>
+      </c>
+      <c r="Y69">
+        <f>$F$58+$K$58</f>
+        <v>2608</v>
+      </c>
+      <c r="Z69">
+        <f>$F$57+$K$57</f>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>38</v>
       </c>
-      <c r="D69">
-        <f>F37+K37</f>
-        <v>3008</v>
-      </c>
-      <c r="E69">
-        <f>F36+K36</f>
-        <v>3008</v>
-      </c>
-      <c r="F69">
-        <f>G39+K39</f>
-        <v>1536</v>
-      </c>
-      <c r="G69">
-        <f>G38+K38</f>
-        <v>1536</v>
-      </c>
-      <c r="I69">
-        <f>H42+K42</f>
-        <v>2128</v>
-      </c>
-      <c r="J69">
-        <f>H41+K41</f>
-        <v>2128</v>
-      </c>
-      <c r="L69">
-        <f>J45+K45</f>
-        <v>568</v>
-      </c>
-      <c r="M69">
-        <f>J44+K44</f>
-        <v>568</v>
-      </c>
-      <c r="N69">
-        <f>J47+K47</f>
-        <v>552</v>
-      </c>
-      <c r="O69">
-        <f>J46+K46</f>
-        <v>552</v>
-      </c>
-      <c r="R69">
-        <f>E51+K51</f>
-        <v>2704</v>
-      </c>
-      <c r="S69">
-        <f>E50+K50</f>
-        <v>2704</v>
-      </c>
-      <c r="T69">
-        <f>E53+K53</f>
-        <v>2704</v>
-      </c>
-      <c r="U69">
-        <f>E52+K52</f>
-        <v>2704</v>
-      </c>
-      <c r="V69">
-        <f>E55+K55</f>
-        <v>5768</v>
-      </c>
-      <c r="W69">
-        <f>E54+K54</f>
-        <v>5768</v>
-      </c>
-      <c r="Y69">
-        <f>F58+K58</f>
-        <v>2608</v>
-      </c>
-      <c r="Z69">
-        <f>F57+K57</f>
-        <v>2016</v>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71">
+        <f>-LN($N$37)</f>
+        <v>-5.8111409929767008</v>
+      </c>
+      <c r="E71">
+        <f>-LN($N$37)</f>
+        <v>-5.8111409929767008</v>
+      </c>
+      <c r="F71">
+        <f>-LN($Q$38)</f>
+        <v>-5.6767538022682817</v>
+      </c>
+      <c r="G71">
+        <f>-LN($Q$38)</f>
+        <v>-5.6767538022682817</v>
+      </c>
+      <c r="I71">
+        <f>-LN($T$41)</f>
+        <v>-5.3471075307174685</v>
+      </c>
+      <c r="J71">
+        <f>-LN($T$41)</f>
+        <v>-5.3471075307174685</v>
+      </c>
+      <c r="L71">
+        <f>-LN($W$44)</f>
+        <v>-5.2470240721604862</v>
+      </c>
+      <c r="M71">
+        <f>-LN($W$44)</f>
+        <v>-5.2470240721604862</v>
+      </c>
+      <c r="N71">
+        <f>-LN($Y$46)</f>
+        <v>-4.4886363697321396</v>
+      </c>
+      <c r="O71">
+        <f>-LN($Y$46)</f>
+        <v>-4.4886363697321396</v>
+      </c>
+      <c r="R71">
+        <f>-LN($AC$50)</f>
+        <v>-6.2859980945088649</v>
+      </c>
+      <c r="S71">
+        <f>-LN($AC$50)</f>
+        <v>-6.2859980945088649</v>
+      </c>
+      <c r="T71">
+        <f>-LN($AE$52)</f>
+        <v>-6.3062752869480159</v>
+      </c>
+      <c r="U71">
+        <f>-LN($AE$52)</f>
+        <v>-6.3062752869480159</v>
+      </c>
+      <c r="V71">
+        <f>-LN($AG$54)</f>
+        <v>-8.6988478592224876</v>
+      </c>
+      <c r="W71">
+        <f>-LN($AG$54)</f>
+        <v>-8.6988478592224876</v>
+      </c>
+      <c r="Y71">
+        <f>-LN($AJ$57)</f>
+        <v>-6.5567783561580422</v>
+      </c>
+      <c r="Z71">
+        <f>-LN($AJ$57)</f>
+        <v>-6.5567783561580422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>40</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <v>1</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>1</v>
-      </c>
-      <c r="R70">
-        <v>1</v>
-      </c>
-      <c r="S70">
-        <v>1</v>
-      </c>
-      <c r="T70">
-        <v>1</v>
-      </c>
-      <c r="U70">
-        <v>1</v>
-      </c>
-      <c r="V70">
-        <v>1</v>
-      </c>
-      <c r="W70">
-        <v>1</v>
-      </c>
-      <c r="Y70">
-        <v>1</v>
-      </c>
-      <c r="Z70">
-        <v>1</v>
-      </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>39</v>
-      </c>
-      <c r="H74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>41</v>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:33" ht="50.25" x14ac:dyDescent="0.25">
-      <c r="C77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1" t="s">
+    <row r="78" spans="1:33" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="C78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="J78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="K78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O77" s="1" t="s">
+      <c r="L78" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q77" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S77" s="1" t="s">
+      <c r="N78" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U77" s="1" t="s">
+      <c r="O78" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V77" s="1" t="s">
+      <c r="P78" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="W77" s="1" t="s">
+      <c r="Q78" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="X77" s="1" t="s">
+      <c r="R78" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Y77" s="1" t="s">
+      <c r="S78" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Z77" s="1" t="s">
+      <c r="T78" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AA77" s="1" t="s">
+      <c r="U78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB77" s="1" t="s">
+      <c r="V78" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AC77" s="1" t="s">
+      <c r="W78" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AD77" s="1" t="s">
+      <c r="X78" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AE77" s="1" t="s">
+      <c r="Y78" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AF77" s="1" t="s">
+      <c r="Z78" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AG77" s="1" t="s">
+      <c r="AA78" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>33</v>
-      </c>
-      <c r="B78" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78" t="s">
-        <v>46</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78" t="s">
-        <v>48</v>
-      </c>
-      <c r="M78">
-        <f>I67+1</f>
-        <v>2</v>
-      </c>
-      <c r="N78" t="s">
-        <v>50</v>
-      </c>
-      <c r="O78">
-        <f>N67+1</f>
-        <v>2</v>
-      </c>
-      <c r="P78" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q78">
-        <f>N67+1</f>
-        <v>2</v>
-      </c>
-      <c r="R78" t="s">
-        <v>52</v>
-      </c>
-      <c r="S78">
-        <f>L67+1</f>
-        <v>2</v>
-      </c>
-      <c r="T78" t="s">
-        <v>52</v>
-      </c>
-      <c r="U78">
-        <f>L67+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>45</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
-      <c r="H79" t="s">
-        <v>47</v>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
       </c>
       <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
         <v>2</v>
       </c>
-      <c r="L79" t="s">
-        <v>49</v>
+      <c r="L79">
+        <v>2</v>
       </c>
       <c r="M79">
-        <f>J67+1</f>
         <v>2</v>
       </c>
-      <c r="N79" t="s">
-        <v>51</v>
+      <c r="N79">
+        <v>2</v>
       </c>
       <c r="O79">
-        <f>O67+1</f>
         <v>2</v>
       </c>
-      <c r="P79" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q79">
-        <f>O67+1</f>
-        <v>2</v>
-      </c>
-      <c r="R79" t="s">
-        <v>53</v>
+      <c r="R79">
+        <v>1</v>
       </c>
       <c r="S79">
-        <f>M67+1</f>
-        <v>2</v>
-      </c>
-      <c r="T79" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
       </c>
       <c r="U79">
-        <f>M67+1</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
+      <c r="Z79">
+        <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>34</v>
       </c>
       <c r="D80">
-        <f>D67*(LN(D67)-LN(D69))</f>
+        <f>$D$67*(LN($D$67)-LN($D$69))</f>
         <v>-8.0090306850697299</v>
       </c>
       <c r="E80">
-        <f>E67*(LN(E67)-LN(E69))</f>
+        <f>$D$67*(LN($E$67)-LN($E$69))</f>
         <v>-8.0090306850697299</v>
       </c>
-      <c r="H80">
-        <f>F67*(LN(F67)-LN(F69))</f>
+      <c r="F80">
+        <f>$F$67*(LN($F$67)-LN($F$69))</f>
         <v>-7.3369369137076177</v>
       </c>
+      <c r="G80">
+        <f>$G$67*(LN($G$67)-LN($G$69))</f>
+        <v>-7.3369369137076177</v>
+      </c>
       <c r="I80">
-        <f>G67*(LN(G67)-LN(G69))</f>
-        <v>-7.3369369137076177</v>
+        <f>$I$67*(LN($I$67)-LN($I$69))</f>
+        <v>-7.6629378504615353</v>
+      </c>
+      <c r="J80">
+        <f>$J$67*(LN($J$67)-LN($J$69))</f>
+        <v>-7.6629378504615353</v>
+      </c>
+      <c r="L80">
+        <f>$L$67*(LN($L$67)-LN($L$69))</f>
+        <v>-6.3421214187211516</v>
+      </c>
+      <c r="M80">
+        <f>$M$67*(LN($M$67)-LN($M$69))</f>
+        <v>-6.3421214187211516</v>
+      </c>
+      <c r="N80">
+        <f>$N$67*(LN($N$67)-LN($N$69))</f>
+        <v>-6.313548046277095</v>
       </c>
       <c r="O80">
-        <f>L67*(LN(L67)-LN(L69))</f>
-        <v>-6.3421214187211516</v>
-      </c>
-      <c r="Q80">
-        <f>M67*(LN(M67)-LN(M69))</f>
-        <v>-6.3421214187211516</v>
-      </c>
-      <c r="S80">
-        <f>N67*(LN(N67)-LN(N69))</f>
+        <f>$O$67*(LN($O$67)-LN($O$69))</f>
         <v>-6.313548046277095</v>
       </c>
-      <c r="U80">
-        <f>O67*(LN(O67)-LN(O69))</f>
-        <v>-6.313548046277095</v>
-      </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81">
+        <f>$E$35+$D$69</f>
+        <v>3752</v>
+      </c>
+      <c r="D81">
+        <f>$E$35+$K$35</f>
+        <v>1360</v>
+      </c>
+      <c r="E81">
+        <f>$E$35+$K$35</f>
+        <v>1360</v>
+      </c>
+      <c r="F81">
+        <f>$F$38+$K$40</f>
+        <v>2736</v>
+      </c>
+      <c r="G81">
+        <f>$F$38+$K$40</f>
+        <v>2736</v>
+      </c>
+      <c r="H81">
+        <f>$F$38+$G$69</f>
+        <v>2736</v>
+      </c>
+      <c r="I81">
+        <f>$G$41+$K$43</f>
+        <v>2552</v>
+      </c>
+      <c r="J81">
+        <f>$G$41+$K$43</f>
+        <v>2552</v>
+      </c>
+      <c r="K81">
+        <f>$G$41+$I$69</f>
+        <v>2552</v>
+      </c>
+      <c r="L81">
+        <f>$I$47+$N$69</f>
+        <v>1256</v>
+      </c>
+      <c r="M81">
+        <f>$I$47+$N$69</f>
+        <v>1256</v>
+      </c>
+      <c r="N81">
+        <f>$I$47+$L$69</f>
+        <v>1272</v>
+      </c>
+      <c r="O81">
+        <f>$I$47+$M$69</f>
+        <v>1272</v>
+      </c>
+      <c r="R81">
+        <f>$E$51+$K$51</f>
+        <v>2704</v>
+      </c>
+      <c r="S81">
+        <f>$E$50+$K$50</f>
+        <v>2704</v>
+      </c>
+      <c r="T81">
+        <f>$E$53+$K$53</f>
+        <v>2704</v>
+      </c>
+      <c r="U81">
+        <f>$E$52+$K$52</f>
+        <v>2704</v>
+      </c>
+      <c r="V81">
+        <f>$E$55+$K$55</f>
+        <v>5768</v>
+      </c>
+      <c r="W81">
+        <f>$E$54+$K$54</f>
+        <v>5768</v>
+      </c>
+      <c r="Y81">
+        <f>$F$58+$K$58</f>
+        <v>2608</v>
+      </c>
+      <c r="Z81">
+        <f>$F$57+$K$57</f>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>38</v>
       </c>
-      <c r="B81" t="s">
-        <v>44</v>
-      </c>
-      <c r="C81">
-        <f>E35+D69</f>
-        <v>3752</v>
-      </c>
-      <c r="D81">
-        <f>E36+K35</f>
-        <v>1360</v>
-      </c>
-      <c r="E81">
-        <f>E36+K35</f>
-        <v>1360</v>
-      </c>
-      <c r="F81">
-        <f>F40+K40</f>
-        <v>2736</v>
-      </c>
-      <c r="G81">
-        <f>F40+K40</f>
-        <v>2736</v>
-      </c>
-      <c r="H81" t="s">
-        <v>46</v>
-      </c>
-      <c r="I81">
-        <f>F40+F69</f>
-        <v>2736</v>
-      </c>
-      <c r="J81">
-        <f>G43+K43</f>
-        <v>2552</v>
-      </c>
-      <c r="K81">
-        <f>G43+K43</f>
-        <v>2552</v>
-      </c>
-      <c r="L81" t="s">
-        <v>48</v>
-      </c>
-      <c r="M81">
-        <f>I69+G43</f>
-        <v>2552</v>
-      </c>
-      <c r="N81" t="s">
-        <v>50</v>
-      </c>
-      <c r="O81">
-        <f>I45+N69</f>
-        <v>1256</v>
-      </c>
-      <c r="P81" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q81">
-        <f>I45+N69</f>
-        <v>1256</v>
-      </c>
-      <c r="R81" t="s">
-        <v>52</v>
-      </c>
-      <c r="S81">
-        <f>I45+L69</f>
-        <v>1272</v>
-      </c>
-      <c r="T81" t="s">
-        <v>52</v>
-      </c>
-      <c r="U81">
-        <f>I45+L69</f>
-        <v>1272</v>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+      <c r="U82">
+        <v>1</v>
+      </c>
+      <c r="V82">
+        <v>1</v>
+      </c>
+      <c r="W82">
+        <v>1</v>
+      </c>
+      <c r="Y82">
+        <v>1</v>
+      </c>
+      <c r="Z82">
+        <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82">
-        <f>E35+E69</f>
-        <v>3752</v>
-      </c>
-      <c r="H82" t="s">
-        <v>47</v>
-      </c>
-      <c r="I82">
-        <f>F40+G69</f>
-        <v>2736</v>
-      </c>
-      <c r="L82" t="s">
-        <v>49</v>
-      </c>
-      <c r="M82">
-        <f>I69+G43</f>
-        <v>2552</v>
-      </c>
-      <c r="N82" t="s">
-        <v>51</v>
-      </c>
-      <c r="O82">
-        <f>I45+O69</f>
-        <v>1256</v>
-      </c>
-      <c r="P82" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q82">
-        <f>I45+O69</f>
-        <v>1256</v>
-      </c>
-      <c r="R82" t="s">
-        <v>53</v>
-      </c>
-      <c r="S82">
-        <f>I45+M69</f>
-        <v>1272</v>
-      </c>
-      <c r="T82" t="s">
-        <v>53</v>
-      </c>
-      <c r="U82">
-        <f>I45+M69</f>
-        <v>1272</v>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83">
+        <f>-LN($N$35)</f>
+        <v>-5.5053315359323625</v>
+      </c>
+      <c r="D83">
+        <f>-LN($N$35)</f>
+        <v>-5.5053315359323625</v>
+      </c>
+      <c r="E83">
+        <f>-LN($O$35)</f>
+        <v>-6.2146080984221914</v>
+      </c>
+      <c r="F83">
+        <f>-LN($R$38)</f>
+        <v>-5.7651911027848444</v>
+      </c>
+      <c r="G83">
+        <f>-LN($R$39)</f>
+        <v>-5.8607862234658654</v>
+      </c>
+      <c r="H83">
+        <f>-LN($R$38)</f>
+        <v>-5.7651911027848444</v>
+      </c>
+      <c r="I83">
+        <f>-LN($S$43)</f>
+        <v>-5.4847969334906548</v>
+      </c>
+      <c r="J83">
+        <f>-LN($U$42)</f>
+        <v>-5.5333894887275203</v>
+      </c>
+      <c r="K83">
+        <f>-LN($S$43)</f>
+        <v>-5.4847969334906548</v>
+      </c>
+      <c r="L83">
+        <f>-LN($W$44)</f>
+        <v>-5.2470240721604862</v>
+      </c>
+      <c r="M83">
+        <f>-LN($W$44)</f>
+        <v>-5.2470240721604862</v>
+      </c>
+      <c r="N83">
+        <f>-LN($Y$46)</f>
+        <v>-4.4886363697321396</v>
+      </c>
+      <c r="O83">
+        <f>-LN($Y$46)</f>
+        <v>-4.4886363697321396</v>
+      </c>
+      <c r="R83">
+        <f>-LN($AC$50)</f>
+        <v>-6.2859980945088649</v>
+      </c>
+      <c r="S83">
+        <f>-LN($AC$50)</f>
+        <v>-6.2859980945088649</v>
+      </c>
+      <c r="T83">
+        <f>-LN($AE$52)</f>
+        <v>-6.3062752869480159</v>
+      </c>
+      <c r="U83">
+        <f>-LN($AE$52)</f>
+        <v>-6.3062752869480159</v>
+      </c>
+      <c r="V83">
+        <f>-LN($AG$54)</f>
+        <v>-8.6988478592224876</v>
+      </c>
+      <c r="W83">
+        <f>-LN($AG$54)</f>
+        <v>-8.6988478592224876</v>
+      </c>
+      <c r="Y83">
+        <f>-LN($AJ$57)</f>
+        <v>-6.5567783561580422</v>
+      </c>
+      <c r="Z83">
+        <f>-LN($AJ$57)</f>
+        <v>-6.5567783561580422</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>40</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <f>$D$71</f>
+        <v>-5.8111409929767008</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <f>$D$71</f>
+        <v>-5.8111409929767008</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <f>$E$71</f>
+        <v>-5.8111409929767008</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <f>$F$71</f>
+        <v>-5.6767538022682817</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <f>$G$71</f>
+        <v>-5.6767538022682817</v>
+      </c>
+      <c r="H84">
+        <f>$F$71</f>
+        <v>-5.6767538022682817</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <f>$I$71</f>
+        <v>-5.3471075307174685</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <f>$J$71</f>
+        <v>-5.3471075307174685</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <f>$I$71</f>
+        <v>-5.3471075307174685</v>
+      </c>
+      <c r="L84">
+        <f>$L$71</f>
+        <v>-5.2470240721604862</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <f>$M$71</f>
+        <v>-5.2470240721604862</v>
+      </c>
+      <c r="N84">
+        <f>$N$71</f>
+        <v>-4.4886363697321396</v>
       </c>
       <c r="O84">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>1</v>
-      </c>
-      <c r="S84">
-        <v>1</v>
-      </c>
-      <c r="U84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>43</v>
+        <f>$O$71</f>
+        <v>-4.4886363697321396</v>
       </c>
     </row>
   </sheetData>
